--- a/users_data.xlsx
+++ b/users_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,31 +468,182 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>511570111</v>
+        <v>519657598</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Дмитрий С</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8910222</t>
+          <t>88005553535</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Есенина</t>
+          <t>Костюкова 44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10000 денег</t>
+          <t>Что-то сладкое</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Что-то дешевое</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>638468507</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>89205987766</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Планета Земля материк Евразия страна Россия город Белгород улица Костюкова дом 46 корпус 6 4 этаж квартира 401 комната 1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Хочу портфель новый, машину или просто деньги</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>/start</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>809504095</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Галина</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>89207386677</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Белгород, Щорса 15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>компьютер</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>мармелад</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1366526992</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Алексей</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>89036482274</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>п. Дубовое, ул. Садовая, д. 23, кв. 17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Носки, шапка, шарф</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Парик и расчёска</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1382920767</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Анна П.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>89995187273</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ул. Костюкова 46к6 307с. 2к.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>хочу что нибудь с котиками, люблю сладости)
+или всё что угодно на ваше усмотрение</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>что то живое</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1940614549</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>НуДоПустим</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>+7951155-95-89</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Улица Клары Цеткин, владение 1, город Липецк</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>С новым годом!</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Чёрный пистолет</t>
         </is>
       </c>
     </row>
@@ -507,7 +658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,12 +699,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Дима Марков</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>/start</t>
+          <t>89102220503</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -561,30 +712,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ожидает</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>809504095</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>галя</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>рлдт</t>
-        </is>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ожидает</t>
+          <t>Отправляю</t>
         </is>
       </c>
     </row>
